--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1340.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1340.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.111992436519443</v>
+        <v>1.150250911712646</v>
       </c>
       <c r="B1">
-        <v>2.604776527886711</v>
+        <v>2.581364631652832</v>
       </c>
       <c r="C1">
-        <v>4.508343795066566</v>
+        <v>9.594318389892578</v>
       </c>
       <c r="D1">
-        <v>2.492223464702304</v>
+        <v>2.132050752639771</v>
       </c>
       <c r="E1">
-        <v>1.192716589750071</v>
+        <v>1.246553540229797</v>
       </c>
     </row>
   </sheetData>
